--- a/data/student_data_with_attendance.xlsx
+++ b/data/student_data_with_attendance.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'Computer Science': 69.2, 'Data Structures': 67.2, 'Algorithms': 83.7, 'Machine Learning': 80.7, 'Web Development': 99.8, 'Database Systems': 69.3}</t>
+          <t>{'Computer Science': 92.6, 'Data Structures': 82.2, 'Algorithms': 73.5, 'Machine Learning': 61.8, 'Web Development': 86.0, 'Database Systems': 78.0}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'Computer Science': 91.5, 'Data Structures': 64.9, 'Algorithms': 64.2, 'Machine Learning': 60.4, 'Web Development': 95.8, 'Database Systems': 75.0}</t>
+          <t>{'Computer Science': 87.8, 'Data Structures': 74.1, 'Algorithms': 92.7, 'Machine Learning': 65.2, 'Web Development': 65.4, 'Database Systems': 99.6}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'Computer Science': 61.9, 'Data Structures': 61.5, 'Algorithms': 87.1, 'Machine Learning': 66.7, 'Web Development': 92.6, 'Database Systems': 80.1}</t>
+          <t>{'Computer Science': 60.8, 'Data Structures': 88.1, 'Algorithms': 65.1, 'Machine Learning': 83.5, 'Web Development': 70.7, 'Database Systems': 60.3}</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'Computer Science': 78.7, 'Data Structures': 90.7, 'Algorithms': 86.4, 'Machine Learning': 70.2, 'Web Development': 72.1, 'Database Systems': 69.0}</t>
+          <t>{'Computer Science': 93.7, 'Data Structures': 69.9, 'Algorithms': 71.0, 'Machine Learning': 72.0, 'Web Development': 79.6, 'Database Systems': 81.6}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'Computer Science': 68.4, 'Data Structures': 82.5, 'Algorithms': 91.3, 'Machine Learning': 74.2, 'Web Development': 82.1, 'Database Systems': 84.9}</t>
+          <t>{'Computer Science': 72.7, 'Data Structures': 84.4, 'Algorithms': 88.9, 'Machine Learning': 75.2, 'Web Development': 92.6, 'Database Systems': 66.7}</t>
         </is>
       </c>
     </row>

--- a/data/student_data_with_attendance.xlsx
+++ b/data/student_data_with_attendance.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'Computer Science': 92.6, 'Data Structures': 82.2, 'Algorithms': 73.5, 'Machine Learning': 61.8, 'Web Development': 86.0, 'Database Systems': 78.0}</t>
+          <t>{'Computer Science': 96.6, 'Data Structures': 94.1, 'Algorithms': 88.6, 'Machine Learning': 80.7, 'Web Development': 77.7, 'Database Systems': 92.1}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'Computer Science': 87.8, 'Data Structures': 74.1, 'Algorithms': 92.7, 'Machine Learning': 65.2, 'Web Development': 65.4, 'Database Systems': 99.6}</t>
+          <t>{'Computer Science': 76.6, 'Data Structures': 65.5, 'Algorithms': 86.1, 'Machine Learning': 67.1, 'Web Development': 83.2, 'Database Systems': 70.7}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'Computer Science': 60.8, 'Data Structures': 88.1, 'Algorithms': 65.1, 'Machine Learning': 83.5, 'Web Development': 70.7, 'Database Systems': 60.3}</t>
+          <t>{'Computer Science': 92.0, 'Data Structures': 69.6, 'Algorithms': 91.6, 'Machine Learning': 67.0, 'Web Development': 74.0, 'Database Systems': 91.3}</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'Computer Science': 93.7, 'Data Structures': 69.9, 'Algorithms': 71.0, 'Machine Learning': 72.0, 'Web Development': 79.6, 'Database Systems': 81.6}</t>
+          <t>{'Computer Science': 81.8, 'Data Structures': 71.9, 'Algorithms': 74.2, 'Machine Learning': 99.8, 'Web Development': 65.7, 'Database Systems': 83.9}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'Computer Science': 72.7, 'Data Structures': 84.4, 'Algorithms': 88.9, 'Machine Learning': 75.2, 'Web Development': 92.6, 'Database Systems': 66.7}</t>
+          <t>{'Computer Science': 66.4, 'Data Structures': 77.9, 'Algorithms': 89.3, 'Machine Learning': 77.3, 'Web Development': 64.5, 'Database Systems': 93.6}</t>
         </is>
       </c>
     </row>

--- a/data/student_data_with_attendance.xlsx
+++ b/data/student_data_with_attendance.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'Computer Science': 96.6, 'Data Structures': 94.1, 'Algorithms': 88.6, 'Machine Learning': 80.7, 'Web Development': 77.7, 'Database Systems': 92.1}</t>
+          <t>{'Computer Science': 61.7, 'Data Structures': 81.7, 'Algorithms': 80.0, 'Machine Learning': 71.2, 'Web Development': 74.1, 'Database Systems': 89.2}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'Computer Science': 76.6, 'Data Structures': 65.5, 'Algorithms': 86.1, 'Machine Learning': 67.1, 'Web Development': 83.2, 'Database Systems': 70.7}</t>
+          <t>{'Computer Science': 62.2, 'Data Structures': 86.8, 'Algorithms': 60.6, 'Machine Learning': 71.8, 'Web Development': 72.6, 'Database Systems': 68.5}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'Computer Science': 92.0, 'Data Structures': 69.6, 'Algorithms': 91.6, 'Machine Learning': 67.0, 'Web Development': 74.0, 'Database Systems': 91.3}</t>
+          <t>{'Computer Science': 82.4, 'Data Structures': 88.0, 'Algorithms': 79.4, 'Machine Learning': 73.3, 'Web Development': 87.9, 'Database Systems': 89.3}</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'Computer Science': 81.8, 'Data Structures': 71.9, 'Algorithms': 74.2, 'Machine Learning': 99.8, 'Web Development': 65.7, 'Database Systems': 83.9}</t>
+          <t>{'Computer Science': 94.3, 'Data Structures': 99.9, 'Algorithms': 74.1, 'Machine Learning': 64.0, 'Web Development': 72.6, 'Database Systems': 84.9}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'Computer Science': 66.4, 'Data Structures': 77.9, 'Algorithms': 89.3, 'Machine Learning': 77.3, 'Web Development': 64.5, 'Database Systems': 93.6}</t>
+          <t>{'Computer Science': 75.7, 'Data Structures': 71.1, 'Algorithms': 78.6, 'Machine Learning': 92.3, 'Web Development': 74.8, 'Database Systems': 75.3}</t>
         </is>
       </c>
     </row>

--- a/data/student_data_with_attendance.xlsx
+++ b/data/student_data_with_attendance.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'Computer Science': 61.7, 'Data Structures': 81.7, 'Algorithms': 80.0, 'Machine Learning': 71.2, 'Web Development': 74.1, 'Database Systems': 89.2}</t>
+          <t>{'Computer Science': 65.6, 'Data Structures': 97.4, 'Algorithms': 63.5, 'Machine Learning': 90.4, 'Web Development': 91.1, 'Database Systems': 61.0}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'Computer Science': 62.2, 'Data Structures': 86.8, 'Algorithms': 60.6, 'Machine Learning': 71.8, 'Web Development': 72.6, 'Database Systems': 68.5}</t>
+          <t>{'Computer Science': 61.8, 'Data Structures': 83.3, 'Algorithms': 84.6, 'Machine Learning': 78.4, 'Web Development': 76.7, 'Database Systems': 99.1}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'Computer Science': 82.4, 'Data Structures': 88.0, 'Algorithms': 79.4, 'Machine Learning': 73.3, 'Web Development': 87.9, 'Database Systems': 89.3}</t>
+          <t>{'Computer Science': 73.7, 'Data Structures': 61.0, 'Algorithms': 71.2, 'Machine Learning': 82.9, 'Web Development': 61.2, 'Database Systems': 63.0}</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'Computer Science': 94.3, 'Data Structures': 99.9, 'Algorithms': 74.1, 'Machine Learning': 64.0, 'Web Development': 72.6, 'Database Systems': 84.9}</t>
+          <t>{'Computer Science': 86.5, 'Data Structures': 73.7, 'Algorithms': 86.0, 'Machine Learning': 64.7, 'Web Development': 71.6, 'Database Systems': 62.7}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'Computer Science': 75.7, 'Data Structures': 71.1, 'Algorithms': 78.6, 'Machine Learning': 92.3, 'Web Development': 74.8, 'Database Systems': 75.3}</t>
+          <t>{'Computer Science': 91.0, 'Data Structures': 96.2, 'Algorithms': 76.8, 'Machine Learning': 97.2, 'Web Development': 70.2, 'Database Systems': 79.3}</t>
         </is>
       </c>
     </row>
